--- a/media/BAJAJ-PL/MIS/MAR 22/MASTER_FILE_BAJAJ-PL.xlsx
+++ b/media/BAJAJ-PL/MIS/MAR 22/MASTER_FILE_BAJAJ-PL.xlsx
@@ -783,15 +783,15 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -955,15 +955,15 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -3015,15 +3015,15 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -3187,15 +3187,15 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>6581</v>
+        <v>0</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -3445,15 +3445,15 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -3617,15 +3617,15 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3581</v>
+        <v>0</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -4219,15 +4219,15 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>4478</v>
+        <v>0</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -4305,15 +4305,15 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>4738</v>
+        <v>0</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -5079,15 +5079,15 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U54" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -5509,15 +5509,15 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>70500</v>
+        <v>0</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -5681,15 +5681,15 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U61" t="n">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -6541,15 +6541,15 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -6713,15 +6713,15 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>2627</v>
+        <v>0</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U73" t="n">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -7315,15 +7315,15 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U80" t="n">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -7573,15 +7573,15 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>4278</v>
+        <v>0</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U83" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -7745,15 +7745,15 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U85" t="n">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -8175,15 +8175,15 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U90" t="n">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -8347,15 +8347,15 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>5841</v>
+        <v>0</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -8691,15 +8691,15 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>3378</v>
+        <v>0</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U96" t="n">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -10239,15 +10239,15 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U114" t="n">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -10583,15 +10583,15 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U118" t="n">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -11443,15 +11443,15 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>149995</v>
+        <v>0</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U128" t="n">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -11787,15 +11787,15 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>10282</v>
+        <v>0</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U132" t="n">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -12131,15 +12131,15 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U136" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -12473,15 +12473,15 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>3663</v>
+        <v>0</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U140" t="n">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -12645,15 +12645,15 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U142" t="n">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -14021,15 +14021,15 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U158" t="n">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -14623,15 +14623,15 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U165" t="n">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -15139,15 +15139,15 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U171" t="n">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -15225,15 +15225,15 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>20139</v>
+        <v>0</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U172" t="n">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -15311,15 +15311,15 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U173" t="n">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -15741,15 +15741,15 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U178" t="n">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -15827,15 +15827,15 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U179" t="n">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -16257,15 +16257,15 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -16515,15 +16515,15 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>8065</v>
+        <v>0</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U187" t="n">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -17461,15 +17461,15 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>14875</v>
+        <v>0</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U198" t="n">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -17977,15 +17977,15 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U204" t="n">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -18063,15 +18063,15 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U205" t="n">
@@ -18079,7 +18079,7 @@
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -19353,15 +19353,15 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>7450</v>
+        <v>0</v>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -19369,7 +19369,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -19955,15 +19955,15 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U227" t="n">
@@ -19971,7 +19971,7 @@
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -20729,15 +20729,15 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U236" t="n">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -21417,15 +21417,15 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U244" t="n">
@@ -21433,7 +21433,7 @@
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -22879,15 +22879,15 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U261" t="n">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -22965,15 +22965,15 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U262" t="n">
@@ -22981,7 +22981,7 @@
       </c>
       <c r="V262" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -24083,15 +24083,15 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>4465</v>
+        <v>0</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U275" t="n">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -25545,15 +25545,15 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U292" t="n">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -28295,15 +28295,15 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="V324" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -28381,15 +28381,15 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -28397,7 +28397,7 @@
       </c>
       <c r="V325" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -28639,15 +28639,15 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -28655,7 +28655,7 @@
       </c>
       <c r="V328" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -30531,15 +30531,15 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U350" t="n">
@@ -30547,7 +30547,7 @@
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -30617,15 +30617,15 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>6807</v>
+        <v>0</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U351" t="n">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="V351" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -30961,15 +30961,15 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U355" t="n">
@@ -30977,7 +30977,7 @@
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -31047,15 +31047,15 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U356" t="n">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -31305,15 +31305,15 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2479</v>
+        <v>0</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U359" t="n">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="V359" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -32423,15 +32423,15 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>6201</v>
+        <v>0</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U372" t="n">
@@ -32439,7 +32439,7 @@
       </c>
       <c r="V372" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -35175,15 +35175,15 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -35191,7 +35191,7 @@
       </c>
       <c r="V404" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -41373,15 +41373,15 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U477" t="n">
@@ -41389,7 +41389,7 @@
       </c>
       <c r="V477" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -52209,15 +52209,15 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U606" t="n">
@@ -52225,7 +52225,7 @@
       </c>
       <c r="V606" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -52629,15 +52629,15 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>5384</v>
+        <v>0</v>
       </c>
       <c r="T611" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U611" t="n">
@@ -52645,7 +52645,7 @@
       </c>
       <c r="V611" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -54393,15 +54393,15 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U632" t="n">
@@ -54409,7 +54409,7 @@
       </c>
       <c r="V632" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -59013,15 +59013,15 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T687" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U687" t="n">
@@ -59029,7 +59029,7 @@
       </c>
       <c r="V687" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -60357,15 +60357,15 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>5306</v>
+        <v>0</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U703" t="n">
@@ -60373,7 +60373,7 @@
       </c>
       <c r="V703" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -62373,15 +62373,15 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T727" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U727" t="n">
@@ -62389,7 +62389,7 @@
       </c>
       <c r="V727" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
